--- a/PTPN11-variants-prioritized.xlsx
+++ b/PTPN11-variants-prioritized.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI2021/variants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF76B0A3-5E58-5848-9E81-24399CDFB462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46E50603-26F5-534A-98EE-9C8D34305C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="1000" windowWidth="38900" windowHeight="23300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTPN11_dm" sheetId="1" r:id="rId1"/>
@@ -4733,7 +4733,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4879,6 +4879,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -5273,7 +5281,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5284,6 +5292,8 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5641,8 +5651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:XFD226"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AL19" sqref="AL19:AL20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6138,7 +6148,7 @@
       <c r="AK4" s="2">
         <v>1</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4" s="10">
         <v>1</v>
       </c>
       <c r="AM4" s="2" t="s">
@@ -6251,7 +6261,7 @@
       <c r="AK5" s="2">
         <v>1</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AL5" s="10">
         <v>1</v>
       </c>
       <c r="AM5" s="2" t="s">
@@ -6364,7 +6374,7 @@
       <c r="AK6" s="2">
         <v>1</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AL6" s="10">
         <v>1</v>
       </c>
       <c r="AM6" s="2" t="s">
@@ -7158,7 +7168,7 @@
       <c r="AK13" s="7">
         <v>4</v>
       </c>
-      <c r="AL13" s="7">
+      <c r="AL13" s="11">
         <v>1</v>
       </c>
       <c r="AM13" s="7" t="s">
@@ -7497,7 +7507,7 @@
       <c r="AK16" s="7">
         <v>4</v>
       </c>
-      <c r="AL16" s="7">
+      <c r="AL16" s="11">
         <v>1</v>
       </c>
       <c r="AM16" s="7" t="s">
@@ -7839,7 +7849,7 @@
       <c r="AK19" s="7">
         <v>4</v>
       </c>
-      <c r="AL19" s="7">
+      <c r="AL19" s="11">
         <v>1</v>
       </c>
       <c r="AM19" s="7" t="s">
@@ -7961,7 +7971,7 @@
       <c r="AK20" s="7">
         <v>4</v>
       </c>
-      <c r="AL20" s="7">
+      <c r="AL20" s="11">
         <v>1</v>
       </c>
       <c r="AM20" s="7" t="s">
